--- a/psrc_scripts/scenario_tests/ValidationScenarioTests.xlsx
+++ b/psrc_scripts/scenario_tests/ValidationScenarioTests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\modelstation2\c$\Workspace\ve_psrc\psrc_scripts\scenario_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\modelstation2\c$\Workspace\VisionEval\input_creation\scenario_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC2ADC-E6B8-4B9B-A137-0A0305CE6434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C897E73-8B38-4F55-A0C2-4B7D4C5C61FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="795" windowWidth="16920" windowHeight="8745" activeTab="1" xr2:uid="{6136951F-4688-433C-92BC-37145E99FD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6136951F-4688-433C-92BC-37145E99FD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>base</t>
   </si>
@@ -192,7 +192,7 @@
     <t xml:space="preserve"> CO2e</t>
   </si>
   <si>
-    <t>Remove 5% of freeway lane miles (to get to Blake Trask's question of impacts)</t>
+    <t>Remove 6% of lane miles (to get to Blake Trask's question of impacts)</t>
   </si>
 </sst>
 </file>
@@ -422,11 +422,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -746,7 +746,7 @@
   <dimension ref="B3:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B5:C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,9 +1104,9 @@
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
@@ -1210,113 +1210,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E15D8A-36E2-4E5C-AC58-59519E657983}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="22">
-        <v>74200480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22">
-        <v>74051920</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>480822</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8578881</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1371489</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>481239</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8581366</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1372146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F8" s="1">
-        <f>F7-F6</f>
-        <v>417</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ref="G8:H8" si="0">G7-G6</f>
-        <v>2485</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F9">
-        <f>F8/F6</f>
-        <v>8.6726480901456256E-4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:H9" si="1">G8/G6</f>
-        <v>2.8966481759101217E-4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>4.7904139223865446E-4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1324,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAAE7AA-2726-4375-868A-6A7A5A568DA1}">
   <dimension ref="B1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
@@ -1684,10 +1592,10 @@
       <c r="B30" s="25">
         <v>0</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="48">
         <v>106565</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="48">
         <v>0</v>
       </c>
       <c r="E30" s="2">
@@ -1784,10 +1692,10 @@
       <c r="B39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="49">
         <v>6.9</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="49">
         <v>8.6999999999999993</v>
       </c>
       <c r="E39" s="2">
@@ -1929,6 +1837,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001563635565CE6B4E835412D3E222A55E" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5394d793cad79609bff97c577ccabc94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74f41e0a-19b3-4f70-93e3-ee157e261b7a" xmlns:ns4="58736a8b-35ce-4573-8624-e62de21a5482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="138eb55068508a5693e4c5313156c011" ns3:_="" ns4:_="">
     <xsd:import namespace="74f41e0a-19b3-4f70-93e3-ee157e261b7a"/>
@@ -2099,22 +2022,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17BC3BDB-2C9E-4A33-87DE-F65EB8DCE667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="74f41e0a-19b3-4f70-93e3-ee157e261b7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58736a8b-35ce-4573-8624-e62de21a5482"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311B1D9F-A6F3-4637-9222-DB3D6E34D1DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890818D5-0E2C-452D-B36F-42E8B3D80973}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2131,29 +2064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311B1D9F-A6F3-4637-9222-DB3D6E34D1DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17BC3BDB-2C9E-4A33-87DE-F65EB8DCE667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="74f41e0a-19b3-4f70-93e3-ee157e261b7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58736a8b-35ce-4573-8624-e62de21a5482"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>